--- a/src/Data/Exiobase_patchwork.xlsx
+++ b/src/Data/Exiobase_patchwork.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E16AC-74DF-4769-AEFB-A6722A84DE54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCE847-9360-46BD-A6D1-70894A328F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Agriculture</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Services</t>
+  </si>
+  <si>
+    <t>Office equipment</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,14 +498,14 @@
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="16" max="16" width="21.6640625" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" customWidth="1"/>
+    <col min="17" max="18" width="14.77734375" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -552,26 +555,29 @@
       <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,12 +632,12 @@
       <c r="R2" s="2">
         <v>1</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
@@ -641,8 +647,11 @@
       <c r="W2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,12 +706,12 @@
       <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
       <c r="U3" s="2">
         <v>1</v>
       </c>
@@ -712,8 +721,11 @@
       <c r="W3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="W4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -839,12 +854,12 @@
       <c r="R5" s="2">
         <v>1</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
       <c r="U5" s="2">
         <v>1</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="W5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -910,12 +928,12 @@
       <c r="R6" s="2">
         <v>1</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
       <c r="U6" s="2">
         <v>1</v>
       </c>
@@ -925,8 +943,11 @@
       <c r="W6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -981,12 +1002,12 @@
       <c r="R7" s="2">
         <v>1</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
       <c r="U7" s="2">
         <v>1</v>
       </c>
@@ -996,8 +1017,11 @@
       <c r="W7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1052,12 +1076,12 @@
       <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
       <c r="U8" s="2">
         <v>1</v>
       </c>
@@ -1067,8 +1091,11 @@
       <c r="W8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1123,12 +1150,12 @@
       <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
       <c r="U9" s="2">
         <v>1</v>
       </c>
@@ -1138,8 +1165,11 @@
       <c r="W9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1209,8 +1239,11 @@
       <c r="W10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1280,8 +1313,11 @@
       <c r="W11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1351,8 +1387,11 @@
       <c r="W12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1461,11 @@
       <c r="W13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1493,8 +1535,11 @@
       <c r="W14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1564,8 +1609,11 @@
       <c r="W15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1683,11 @@
       <c r="W16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1706,457 +1757,553 @@
       <c r="W17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
-        <v>1</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2">
-        <v>1</v>
-      </c>
-      <c r="T22" s="2">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
-        <v>1</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2">
-        <v>1</v>
-      </c>
-      <c r="S23" s="2">
-        <v>1</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
-        <v>1</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
-      <c r="W23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/Exiobase_patchwork.xlsx
+++ b/src/Data/Exiobase_patchwork.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCE847-9360-46BD-A6D1-70894A328F2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF53E4-D8C3-4581-9C67-744FA2A9C96A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22212" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,65 +590,65 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -664,65 +664,65 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -1099,74 +1099,74 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2">
-        <v>1</v>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
